--- a/data/trans_dic/P21_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P21_R-Edad-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,32; 23,73</t>
+          <t>16,32; 23,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,27; 28,47</t>
+          <t>20,16; 28,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,89; 26,71</t>
+          <t>18,45; 26,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,79; 25,2</t>
+          <t>11,64; 24,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,21; 27,67</t>
+          <t>20,0; 27,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,84; 34,68</t>
+          <t>25,55; 34,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,86; 28,65</t>
+          <t>19,89; 27,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,77; 32,86</t>
+          <t>19,66; 32,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,32; 24,62</t>
+          <t>19,37; 24,62</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24,09; 30,0</t>
+          <t>23,81; 29,92</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20,03; 26,0</t>
+          <t>20,11; 26,23</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,35; 26,47</t>
+          <t>17,54; 26,5</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,66; 17,95</t>
+          <t>12,68; 17,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,39; 27,21</t>
+          <t>20,13; 27,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,62; 19,89</t>
+          <t>13,54; 19,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,73; 25,5</t>
+          <t>15,15; 25,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,86; 33,54</t>
+          <t>25,75; 33,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,96; 38,92</t>
+          <t>31,22; 39,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,55; 28,76</t>
+          <t>21,67; 28,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,46; 30,51</t>
+          <t>21,73; 30,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,69; 24,31</t>
+          <t>19,48; 24,37</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>26,1; 31,41</t>
+          <t>26,58; 31,41</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,23; 23,05</t>
+          <t>18,37; 23,02</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>20,46; 27,22</t>
+          <t>20,11; 26,77</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,21; 17,0</t>
+          <t>11,09; 16,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,53; 21,86</t>
+          <t>15,41; 21,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,43; 19,23</t>
+          <t>13,46; 19,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,43; 25,48</t>
+          <t>18,07; 25,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,93; 23,04</t>
+          <t>16,84; 23,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,81; 27,48</t>
+          <t>20,7; 27,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,44; 24,7</t>
+          <t>18,35; 24,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,99; 27,07</t>
+          <t>20,86; 26,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,11; 19,27</t>
+          <t>15,04; 19,19</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>18,84; 23,74</t>
+          <t>18,88; 23,49</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,75; 21,13</t>
+          <t>16,81; 20,98</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>20,4; 25,09</t>
+          <t>20,42; 25,14</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,52; 19,35</t>
+          <t>12,1; 18,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,42; 19,39</t>
+          <t>13,28; 19,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,36; 17,21</t>
+          <t>11,53; 17,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,3; 26,03</t>
+          <t>17,12; 26,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,95; 23,71</t>
+          <t>17,06; 23,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,46; 24,7</t>
+          <t>17,62; 24,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,13; 21,21</t>
+          <t>15,11; 21,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,7; 25,97</t>
+          <t>20,42; 25,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,47; 20,16</t>
+          <t>15,48; 20,49</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,35; 21,22</t>
+          <t>16,48; 21,16</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,13; 18,45</t>
+          <t>14,02; 18,38</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>20,04; 25,21</t>
+          <t>19,73; 25,12</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,93; 20,2</t>
+          <t>12,94; 20,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,96; 21,44</t>
+          <t>13,89; 21,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,05; 18,97</t>
+          <t>12,09; 19,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,41; 23,56</t>
+          <t>17,1; 23,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,38; 25,74</t>
+          <t>17,6; 25,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,09; 27,33</t>
+          <t>19,62; 27,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,73; 22,13</t>
+          <t>14,76; 22,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,31; 26,73</t>
+          <t>21,09; 26,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,36; 21,89</t>
+          <t>16,04; 21,8</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,83; 23,09</t>
+          <t>17,93; 23,3</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,36; 19,51</t>
+          <t>14,43; 19,45</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>19,87; 24,05</t>
+          <t>19,9; 24,2</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>19,74; 27,04</t>
+          <t>19,78; 27,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>20,4; 28,18</t>
+          <t>20,21; 28,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,45; 20,53</t>
+          <t>14,34; 20,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,84; 20,86</t>
+          <t>16,15; 21,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,07; 33,09</t>
+          <t>25,84; 33,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>28,32; 35,34</t>
+          <t>28,19; 35,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>19,8; 26,28</t>
+          <t>20,01; 25,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>25,04; 54,79</t>
+          <t>24,99; 56,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>24,42; 29,53</t>
+          <t>24,54; 29,55</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>25,87; 30,97</t>
+          <t>25,71; 30,84</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,05; 23,1</t>
+          <t>18,36; 22,81</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>22,1; 43,06</t>
+          <t>22,06; 43,47</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,89; 18,49</t>
+          <t>15,81; 18,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>19,09; 22,01</t>
+          <t>19,21; 22,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,53; 18,05</t>
+          <t>15,26; 17,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18,64; 21,79</t>
+          <t>18,69; 21,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,88; 25,74</t>
+          <t>22,84; 25,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,2; 29,26</t>
+          <t>26,16; 29,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,17; 23,0</t>
+          <t>20,09; 23,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>24,3; 34,11</t>
+          <t>24,34; 34,24</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>19,78; 21,85</t>
+          <t>19,78; 21,83</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>23,18; 25,29</t>
+          <t>23,19; 25,22</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>18,27; 20,22</t>
+          <t>18,18; 20,07</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>22,27; 27,86</t>
+          <t>22,11; 27,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P21_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P21_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,32; 23,5</t>
+          <t>16,72; 23,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,16; 28,27</t>
+          <t>20,55; 28,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,45; 26,79</t>
+          <t>18,18; 26,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,0; 27,54</t>
+          <t>20,24; 27,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,55; 34,25</t>
+          <t>26,1; 34,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,89; 27,93</t>
+          <t>19,94; 28,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,37; 24,62</t>
+          <t>19,26; 24,7</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>23,81; 29,92</t>
+          <t>24,2; 30,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20,11; 26,23</t>
+          <t>20,44; 25,92</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,68; 17,81</t>
+          <t>12,83; 18,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,13; 27,07</t>
+          <t>20,62; 27,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,54; 19,72</t>
+          <t>13,58; 19,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,75; 33,08</t>
+          <t>26,13; 33,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,22; 39,27</t>
+          <t>31,06; 38,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,67; 28,85</t>
+          <t>21,11; 28,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,48; 24,37</t>
+          <t>19,59; 24,33</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>26,58; 31,41</t>
+          <t>26,61; 31,69</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,37; 23,02</t>
+          <t>18,35; 23,28</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,09; 16,93</t>
+          <t>11,55; 17,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,41; 21,89</t>
+          <t>15,69; 21,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,46; 19,32</t>
+          <t>13,3; 19,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,84; 23,14</t>
+          <t>17,1; 23,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,7; 27,31</t>
+          <t>20,83; 27,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,35; 24,97</t>
+          <t>18,66; 25,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,04; 19,19</t>
+          <t>15,19; 19,2</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>18,88; 23,49</t>
+          <t>19,1; 23,6</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,81; 20,98</t>
+          <t>16,86; 21,17</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,1; 18,63</t>
+          <t>12,49; 19,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,28; 19,51</t>
+          <t>13,08; 19,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,53; 17,17</t>
+          <t>11,45; 17,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,06; 23,77</t>
+          <t>16,96; 23,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,62; 24,67</t>
+          <t>17,73; 24,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,11; 21,44</t>
+          <t>14,94; 21,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,48; 20,49</t>
+          <t>15,5; 20,34</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,48; 21,16</t>
+          <t>16,25; 20,84</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,02; 18,38</t>
+          <t>13,91; 18,32</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,94; 20,69</t>
+          <t>12,94; 20,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,89; 21,52</t>
+          <t>14,05; 22,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,09; 19,28</t>
+          <t>12,36; 18,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,6; 25,48</t>
+          <t>17,6; 25,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,62; 27,82</t>
+          <t>19,71; 27,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,76; 22,0</t>
+          <t>14,48; 22,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,04; 21,8</t>
+          <t>16,43; 21,96</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,93; 23,3</t>
+          <t>17,81; 23,36</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,43; 19,45</t>
+          <t>14,02; 19,1</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>19,78; 27,3</t>
+          <t>19,73; 27,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>20,21; 28,01</t>
+          <t>19,93; 28,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,34; 20,63</t>
+          <t>14,57; 20,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>25,84; 33,08</t>
+          <t>26,16; 32,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>28,19; 35,02</t>
+          <t>28,13; 35,2</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,01; 25,99</t>
+          <t>19,68; 26,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>24,54; 29,55</t>
+          <t>24,61; 29,83</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>25,71; 30,84</t>
+          <t>25,91; 31,13</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,36; 22,81</t>
+          <t>18,34; 22,71</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,81; 18,47</t>
+          <t>15,87; 18,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>19,21; 22,08</t>
+          <t>19,25; 22,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,26; 17,99</t>
+          <t>15,52; 18,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,84; 25,77</t>
+          <t>22,87; 25,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,16; 29,22</t>
+          <t>26,05; 29,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,09; 23,0</t>
+          <t>20,16; 23,01</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>19,78; 21,83</t>
+          <t>19,73; 21,89</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>23,19; 25,22</t>
+          <t>23,05; 25,21</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>18,18; 20,07</t>
+          <t>18,2; 20,13</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/P21_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P21_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,72; 23,51</t>
+          <t>16,32; 23,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,55; 28,46</t>
+          <t>20,27; 28,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,18; 26,42</t>
+          <t>17,89; 26,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,64; 24,95</t>
+          <t>11,79; 25,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,24; 27,78</t>
+          <t>20,21; 27,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,1; 34,21</t>
+          <t>25,84; 34,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,94; 28,39</t>
+          <t>19,86; 28,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,66; 32,23</t>
+          <t>19,77; 32,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,26; 24,7</t>
+          <t>19,32; 24,62</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24,2; 30,0</t>
+          <t>24,09; 30,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20,44; 25,92</t>
+          <t>20,03; 26,0</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,54; 26,5</t>
+          <t>17,35; 26,47</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,83; 18,14</t>
+          <t>12,66; 17,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,62; 27,07</t>
+          <t>20,39; 27,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,58; 19,46</t>
+          <t>13,62; 19,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,15; 25,13</t>
+          <t>15,73; 25,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,13; 33,72</t>
+          <t>25,86; 33,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,06; 38,93</t>
+          <t>30,96; 38,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,11; 28,67</t>
+          <t>21,55; 28,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,73; 30,46</t>
+          <t>21,46; 30,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,59; 24,33</t>
+          <t>19,69; 24,31</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>26,61; 31,69</t>
+          <t>26,1; 31,41</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,35; 23,28</t>
+          <t>18,23; 23,05</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>20,11; 26,77</t>
+          <t>20,46; 27,22</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,55; 17,2</t>
+          <t>11,21; 17,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,69; 21,96</t>
+          <t>15,53; 21,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,3; 19,21</t>
+          <t>13,43; 19,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,07; 25,66</t>
+          <t>18,43; 25,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,1; 23,24</t>
+          <t>16,93; 23,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,83; 27,35</t>
+          <t>20,81; 27,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,66; 25,02</t>
+          <t>18,44; 24,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,86; 26,88</t>
+          <t>20,99; 27,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,19; 19,2</t>
+          <t>15,11; 19,27</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>19,1; 23,6</t>
+          <t>18,84; 23,74</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,86; 21,17</t>
+          <t>16,75; 21,13</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>20,42; 25,14</t>
+          <t>20,4; 25,09</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,49; 19,08</t>
+          <t>12,52; 19,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,08; 19,15</t>
+          <t>13,42; 19,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,45; 17,01</t>
+          <t>11,36; 17,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,12; 26,15</t>
+          <t>17,3; 26,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,96; 23,78</t>
+          <t>16,95; 23,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,73; 24,57</t>
+          <t>17,46; 24,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,94; 21,4</t>
+          <t>15,13; 21,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,42; 25,63</t>
+          <t>20,7; 25,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,5; 20,34</t>
+          <t>15,47; 20,16</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,25; 20,84</t>
+          <t>16,35; 21,22</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,91; 18,32</t>
+          <t>14,13; 18,45</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>19,73; 25,12</t>
+          <t>20,04; 25,21</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,94; 20,38</t>
+          <t>12,93; 20,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,05; 22,27</t>
+          <t>13,96; 21,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,36; 18,73</t>
+          <t>12,05; 18,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,1; 23,22</t>
+          <t>17,41; 23,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,6; 25,45</t>
+          <t>17,38; 25,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,71; 27,79</t>
+          <t>19,09; 27,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,48; 22,17</t>
+          <t>14,73; 22,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,09; 26,45</t>
+          <t>21,31; 26,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,43; 21,96</t>
+          <t>16,36; 21,89</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,81; 23,36</t>
+          <t>17,83; 23,09</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,02; 19,1</t>
+          <t>14,36; 19,51</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>19,9; 24,2</t>
+          <t>19,87; 24,05</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>19,73; 27,35</t>
+          <t>19,74; 27,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,93; 28,1</t>
+          <t>20,4; 28,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,57; 20,36</t>
+          <t>14,45; 20,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,15; 21,03</t>
+          <t>15,84; 20,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,16; 32,98</t>
+          <t>26,07; 33,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>28,13; 35,2</t>
+          <t>28,32; 35,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>19,68; 26,59</t>
+          <t>19,8; 26,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>24,99; 56,33</t>
+          <t>25,04; 54,79</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>24,61; 29,83</t>
+          <t>24,42; 29,53</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>25,91; 31,13</t>
+          <t>25,87; 30,97</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,34; 22,71</t>
+          <t>18,05; 23,1</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>22,06; 43,47</t>
+          <t>22,1; 43,06</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,87; 18,54</t>
+          <t>15,89; 18,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>19,25; 22,06</t>
+          <t>19,09; 22,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,52; 18,01</t>
+          <t>15,53; 18,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18,69; 21,94</t>
+          <t>18,64; 21,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,87; 25,96</t>
+          <t>22,88; 25,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,05; 29,03</t>
+          <t>26,2; 29,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,16; 23,01</t>
+          <t>20,17; 23,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>24,34; 34,24</t>
+          <t>24,3; 34,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>19,73; 21,89</t>
+          <t>19,78; 21,85</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>23,05; 25,21</t>
+          <t>23,18; 25,29</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>18,2; 20,13</t>
+          <t>18,27; 20,22</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>22,11; 27,59</t>
+          <t>22,27; 27,86</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P21_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P21_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,45%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>26,12%</t>
+          <t>26,17%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>21,63%</t>
+          <t>22,12%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,79; 25,2</t>
+          <t>12,51; 27,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,77; 32,86</t>
+          <t>19,73; 32,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,35; 26,47</t>
+          <t>17,55; 27,3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,3%</t>
+          <t>20,84%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,06%</t>
+          <t>24,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>23,4%</t>
+          <t>22,57%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,73; 25,5</t>
+          <t>16,11; 26,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,46; 30,51</t>
+          <t>15,15; 29,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>20,46; 27,22</t>
+          <t>17,5; 26,75</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>21,59%</t>
+          <t>21,88%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,8%</t>
+          <t>24,14%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>22,72%</t>
+          <t>23,01%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,43; 25,48</t>
+          <t>18,63; 25,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,99; 27,07</t>
+          <t>21,24; 27,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>20,4; 25,09</t>
+          <t>20,68; 25,51</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,55%</t>
+          <t>17,85%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>22,75%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>22,87%</t>
+          <t>20,04%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,3; 26,03</t>
+          <t>8,14; 25,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,7; 25,97</t>
+          <t>19,1; 25,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>20,04; 25,21</t>
+          <t>11,24; 24,19</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>20,23%</t>
+          <t>20,54%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>23,87%</t>
+          <t>23,99%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>22,24%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,41; 23,56</t>
+          <t>17,62; 23,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,31; 26,73</t>
+          <t>21,42; 26,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>19,87; 24,05</t>
+          <t>20,05; 24,28</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>23,47%</t>
+          <t>20,94%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>18,3%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>17,35%</t>
+          <t>17,09%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>17,4%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>27,6%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>31,55%</t>
+          <t>26,02%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>22,94%</t>
+          <t>21,16%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>33,81%</t>
+          <t>48,79%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>26,94%</t>
+          <t>24,54%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>28,29%</t>
+          <t>22,42%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>20,52%</t>
+          <t>19,25%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>27,58%</t>
+          <t>36,95%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>19,74; 27,04</t>
+          <t>16,57; 25,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>20,4; 28,18</t>
+          <t>13,93; 22,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,45; 20,53</t>
+          <t>13,14; 21,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,84; 20,86</t>
+          <t>14,78; 20,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,07; 33,09</t>
+          <t>22,81; 32,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>28,32; 35,34</t>
+          <t>21,39; 30,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>19,8; 26,28</t>
+          <t>17,39; 26,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>25,04; 54,79</t>
+          <t>21,96; 81,96</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>24,42; 29,53</t>
+          <t>20,79; 27,59</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>25,87; 30,97</t>
+          <t>19,4; 26,14</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,05; 23,1</t>
+          <t>16,39; 22,44</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>22,1; 43,06</t>
+          <t>19,36; 68,79</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>26,98%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>20,63%</t>
+          <t>30,95%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>17,7%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>20,28%</t>
+          <t>20,49%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>24,39%</t>
+          <t>31,48%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>27,55%</t>
+          <t>36,58%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>24,61%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>26,9%</t>
+          <t>28,8%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>29,75%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>24,16%</t>
+          <t>34,38%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>19,16%</t>
+          <t>21,9%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>23,78%</t>
+          <t>25,48%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>21,38; 33,14</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>24,59; 37,55</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>13,67; 22,72</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>17,2; 24,84</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>26,23; 36,73</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>31,69; 41,6</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>20,11; 29,25</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>25,85; 32,11</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>25,79; 33,62</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>30,42; 38,5</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>18,5; 25,47</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>23,0; 27,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>17,11%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>20,63%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>16,69%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>19,58%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>24,39%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>27,55%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>21,52%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>28,64%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>20,81%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>24,16%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>19,16%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>24,23%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>15,89; 18,49</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>19,09; 22,01</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>15,53; 18,05</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>18,64; 21,79</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>15,12; 21,75</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>22,88; 25,74</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>26,2; 29,26</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>20,17; 23,0</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>24,3; 34,11</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>23,93; 41,72</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>19,78; 21,85</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>23,18; 25,29</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>18,27; 20,22</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>22,27; 27,86</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>21,41; 30,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P21_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P21_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,32; 23,73</t>
+          <t>16,64; 23,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,27; 28,47</t>
+          <t>20,14; 28,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,89; 26,71</t>
+          <t>18,22; 26,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,51; 27,36</t>
+          <t>12,25; 26,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,21; 27,67</t>
+          <t>20,17; 28,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,84; 34,68</t>
+          <t>25,81; 34,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,86; 28,65</t>
+          <t>19,73; 28,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,73; 32,82</t>
+          <t>19,99; 33,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,32; 24,62</t>
+          <t>19,29; 24,57</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24,09; 30,0</t>
+          <t>24,06; 29,84</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20,03; 26,0</t>
+          <t>20,31; 26,19</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,55; 27,3</t>
+          <t>17,35; 27,51</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,66; 17,95</t>
+          <t>12,8; 18,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,39; 27,21</t>
+          <t>20,44; 26,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,62; 19,89</t>
+          <t>13,46; 19,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,11; 26,58</t>
+          <t>16,23; 26,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,86; 33,54</t>
+          <t>25,71; 33,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,96; 38,92</t>
+          <t>31,28; 39,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,55; 28,76</t>
+          <t>21,4; 28,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,15; 29,91</t>
+          <t>14,6; 29,52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,69; 24,31</t>
+          <t>19,66; 24,15</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>26,1; 31,41</t>
+          <t>26,73; 31,53</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,23; 23,05</t>
+          <t>18,34; 23,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,5; 26,75</t>
+          <t>16,54; 26,29</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,21; 17,0</t>
+          <t>11,39; 17,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,53; 21,86</t>
+          <t>15,47; 21,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,43; 19,23</t>
+          <t>13,45; 19,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,63; 25,82</t>
+          <t>18,54; 25,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,93; 23,04</t>
+          <t>16,85; 23,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,81; 27,48</t>
+          <t>20,81; 27,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,44; 24,7</t>
+          <t>18,37; 24,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>21,24; 27,32</t>
+          <t>21,14; 27,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,11; 19,27</t>
+          <t>15,07; 19,29</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>18,84; 23,74</t>
+          <t>18,88; 23,6</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,75; 21,13</t>
+          <t>16,67; 20,97</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>20,68; 25,51</t>
+          <t>20,58; 25,56</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,52; 19,35</t>
+          <t>12,51; 19,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,42; 19,39</t>
+          <t>13,34; 19,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,36; 17,21</t>
+          <t>11,31; 17,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,14; 25,48</t>
+          <t>7,49; 25,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,95; 23,71</t>
+          <t>16,92; 24,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,46; 24,7</t>
+          <t>17,59; 24,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,13; 21,21</t>
+          <t>14,98; 21,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,1; 25,53</t>
+          <t>18,96; 25,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,47; 20,16</t>
+          <t>15,5; 20,26</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,35; 21,22</t>
+          <t>16,39; 21,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,13; 18,45</t>
+          <t>14,02; 18,31</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,24; 24,19</t>
+          <t>11,39; 24,43</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,93; 20,2</t>
+          <t>12,65; 20,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,96; 21,44</t>
+          <t>14,14; 21,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,05; 18,97</t>
+          <t>12,27; 19,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,62; 23,84</t>
+          <t>17,42; 23,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,38; 25,74</t>
+          <t>17,36; 25,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,09; 27,33</t>
+          <t>19,67; 27,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,73; 22,13</t>
+          <t>14,68; 21,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,42; 26,85</t>
+          <t>21,45; 26,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,36; 21,89</t>
+          <t>16,19; 21,94</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,83; 23,09</t>
+          <t>17,88; 23,4</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,36; 19,51</t>
+          <t>14,25; 19,31</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>20,05; 24,28</t>
+          <t>20,29; 24,34</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,57; 25,96</t>
+          <t>16,05; 25,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,93; 22,97</t>
+          <t>13,37; 23,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,14; 21,85</t>
+          <t>12,95; 21,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,78; 20,91</t>
+          <t>14,14; 20,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,81; 32,55</t>
+          <t>22,73; 32,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,39; 30,87</t>
+          <t>21,29; 30,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,39; 26,06</t>
+          <t>16,95; 25,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>21,96; 81,96</t>
+          <t>21,76; 78,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20,79; 27,59</t>
+          <t>21,29; 27,76</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>19,4; 26,14</t>
+          <t>19,21; 25,94</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>16,39; 22,44</t>
+          <t>16,35; 22,3</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>19,36; 68,79</t>
+          <t>19,45; 65,39</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>21,38; 33,14</t>
+          <t>21,3; 32,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>24,59; 37,55</t>
+          <t>24,94; 38,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,67; 22,72</t>
+          <t>13,88; 22,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,2; 24,84</t>
+          <t>17,17; 24,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>26,23; 36,73</t>
+          <t>26,37; 36,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>31,69; 41,6</t>
+          <t>32,06; 42,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,11; 29,25</t>
+          <t>20,1; 30,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>25,85; 32,11</t>
+          <t>25,55; 32,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>25,79; 33,62</t>
+          <t>25,76; 34,35</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>30,42; 38,5</t>
+          <t>30,63; 38,22</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>18,5; 25,47</t>
+          <t>18,58; 25,42</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>23,0; 27,94</t>
+          <t>23,18; 28,17</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15,89; 18,49</t>
+          <t>15,91; 18,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>19,09; 22,01</t>
+          <t>19,24; 22,17</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>15,53; 18,05</t>
+          <t>15,33; 17,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>15,12; 21,75</t>
+          <t>15,24; 21,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>22,88; 25,74</t>
+          <t>22,94; 25,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>26,2; 29,26</t>
+          <t>26,08; 29,2</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>20,17; 23,0</t>
+          <t>20,07; 22,89</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>23,93; 41,72</t>
+          <t>23,87; 43,22</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>19,78; 21,85</t>
+          <t>19,81; 21,78</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>23,18; 25,29</t>
+          <t>23,15; 25,26</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>18,27; 20,22</t>
+          <t>18,17; 20,13</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>21,41; 30,99</t>
+          <t>21,15; 32,19</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha utilizado un servicio de urgencias en el último año</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>98304</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>109493</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>93555</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>75878</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>111501</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>129113</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>94283</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>81389</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>209804</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>238606</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>187838</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>157267</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>82220; 117964</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>91258; 127818</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>76425; 109990</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>49000; 106591</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>94095; 132472</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>111045; 149196</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>78095; 111239</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>62177; 104990</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>185266; 236059</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>212546; 263633</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>165576; 213475</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>123353; 195573</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>111362</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>163066</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>96577</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>88270</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>185252</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>212460</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>140520</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>122761</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>296614</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>375526</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>237097</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>211031</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>94138; 134091</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>140458; 184019</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>79043; 117222</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>68721; 111963</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>160810; 209798</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>190569; 238091</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>120428; 161634</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>74664; 151006</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>267627; 328668</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>346563; 408708</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>210954; 267079</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>154682; 245864</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>89615</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>125717</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>107456</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>117344</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>137127</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>169503</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>142192</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>130548</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>226743</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>295220</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>249648</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>247891</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>72650; 110315</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>105399; 146287</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>89659; 127425</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>99442; 138584</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>116236; 160787</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>147684; 191810</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>121358; 162903</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>114316; 148144</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>200106; 256045</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>262626; 328225</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>221157; 278222</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>221673; 275385</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>80052</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>98873</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>91270</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>158175</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>103918</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>129853</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>116696</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>162048</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>183970</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>228726</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>207966</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>320223</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>64969; 100528</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>81987; 118734</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>72866; 110303</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>66370; 227468</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>87228; 123839</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>108223; 151166</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>97225; 137743</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>135021; 180579</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>160357; 209623</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>201598; 259372</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>181286; 236758</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>182081; 390532</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>63105</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>75590</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>73290</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>115273</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>86432</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>104128</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>90000</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>130899</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>149537</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>179718</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>163291</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>246172</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>48930; 78566</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>60716; 93002</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>58423; 91577</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>97793; 132723</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>70135; 103099</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>88080; 122463</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>72662; 108207</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>117014; 146432</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>127984; 173452</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>156874; 205267</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>138386; 187488</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>224615; 269437</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>61279</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>56496</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>56961</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>64042</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>94650</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>92124</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>79602</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>296532</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>155929</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>148621</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>136564</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>360574</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>46950; 74107</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>41289; 71616</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>43170; 71148</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>52055; 76141</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>77962; 111139</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>75380; 108097</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>63739; 96515</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>132252; 476270</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>135280; 176449</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>127316; 171934</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>116017; 158192</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>189796; 638198</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>56629</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>77323</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>45480</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>57941</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>105129</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>142291</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>98186</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>122310</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>161758</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>219614</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>143666</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>180251</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>44696; 69012</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>62313; 95496</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>35679; 57230</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>48539; 69651</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>88064; 123350</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>124724; 163907</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>80182; 119895</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>108533; 136097</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>140074; 186776</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>195655; 244154</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>121848; 166735</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>163974; 199317</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>695</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>803</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>908</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>708</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1313</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1352</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1571</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>1238</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>560346</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>706558</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>564590</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>676924</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>824009</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>979472</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>761480</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1046486</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1384355</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1686030</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>1326069</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1723411</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>521268; 607385</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>658662; 759263</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>518647; 608351</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>527034; 749197</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>774989; 873724</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>927222; 1038189</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>710011; 809947</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>871974; 1578998</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1317955; 1449133</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1615706; 1763105</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1257784; 1393367</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>1504178; 2288957</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>